--- a/TestData/TMTC0032668_VerifyBankerWhoIsNotPartOfTheActivityCannotEditTheActivity.xlsx
+++ b/TestData/TMTC0032668_VerifyBankerWhoIsNotPartOfTheActivityCannotEditTheActivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9474B04E-28ED-4B7E-AD8F-841A6F7B14BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617FD002-EFC4-4B0C-9F67-5FE701DDC86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Users</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Thomas Bailey</t>
   </si>
   <si>
-    <t>StandardTestCompany</t>
-  </si>
-  <si>
     <t>ContactName</t>
   </si>
   <si>
@@ -108,6 +105,12 @@
   </si>
   <si>
     <t>Amanda Donovan</t>
+  </si>
+  <si>
+    <t>Activity Test External Contact</t>
+  </si>
+  <si>
+    <t>ActivityCompany</t>
   </si>
 </sst>
 </file>
@@ -474,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6AD56-19A8-4526-A92B-5BB161C99B6D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,10 +489,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -497,10 +500,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -588,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497C889C-3ACB-4B20-BD34-9599509F31A2}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -599,12 +602,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
